--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/115_gm_Fried Chicken Sprinkle Masala 1.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/115_gm_Fried Chicken Sprinkle Masala 1.xlsx
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0.7</v>
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -552,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>3.5</v>
@@ -566,7 +566,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0.027</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0.045</v>
@@ -594,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0.8333333333333334</v>
@@ -650,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>2.5</v>
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2.6</v>
@@ -678,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0.21</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/115_gm_Fried Chicken Sprinkle Masala 1.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/115_gm_Fried Chicken Sprinkle Masala 1.xlsx
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="D2">
         <v>0.7</v>
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="D3">
         <v>1.22</v>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>13.91304347826087</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -552,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D8">
         <v>3.5</v>
@@ -566,7 +566,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D9">
         <v>0.027</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="D10">
         <v>0.045</v>
@@ -594,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D14">
         <v>0.8333333333333334</v>
@@ -650,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="D15">
         <v>2.5</v>
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="D16">
         <v>2.6</v>
@@ -678,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10.43478260869565</v>
       </c>
       <c r="D17">
         <v>0.21</v>
